--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2084213.141778185</v>
+        <v>-2087247.473855039</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>160.9052067469951</v>
       </c>
       <c r="C2" t="n">
-        <v>273.3996721413996</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>5.527377338169694</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>166.8018997768683</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>101.3315047991726</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>113.7791407974868</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.1118552341722</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.6756852658852</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>239.5540690046414</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>143.7516323856849</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.60564476255269</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>65.05884990877774</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>31.62975099532219</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>98.76492394485777</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>69.4605991746285</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>132.3569894857579</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292664</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>83.96546591245735</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>270.069702148647</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534539</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14.06762294334592</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.6268892744762</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414546</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>270.069702148647</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>113.510364625082</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652626</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352486</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652626</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330.1042668116772</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2636.537192116221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2417.902525088284</v>
+        <v>2297.456146411504</v>
       </c>
       <c r="U2" t="n">
-        <v>2164.140739726375</v>
+        <v>2043.694361049595</v>
       </c>
       <c r="V2" t="n">
-        <v>1833.077852382805</v>
+        <v>1712.631473706025</v>
       </c>
       <c r="W2" t="n">
-        <v>1480.309197112691</v>
+        <v>1712.631473706025</v>
       </c>
       <c r="X2" t="n">
-        <v>1106.843438851611</v>
+        <v>1712.631473706025</v>
       </c>
       <c r="Y2" t="n">
-        <v>716.704106875799</v>
+        <v>1712.631473706025</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>156.298037173064</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>156.298037173064</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.515311311824</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.552794371412</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D5" t="n">
-        <v>1151.287095764662</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1151.287095764662</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>740.3011909750544</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>322.3373828732413</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>987.3797115521108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>597.2403795762991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>138.3857151273827</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1452.061221751178</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="C8" t="n">
-        <v>1452.061221751178</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1149.386784289576</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>763.5985316913318</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>352.6126269017242</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.661061815299</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>391.878965009939</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610023</v>
+        <v>662.4129741975678</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610023</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610023</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610023</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5054,13 +5054,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5112,28 +5112,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6097761177758</v>
+        <v>686.6690720494838</v>
       </c>
       <c r="C13" t="n">
-        <v>801.6097761177758</v>
+        <v>686.6690720494838</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>686.6690720494838</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>538.7559784670907</v>
       </c>
       <c r="F13" t="n">
         <v>506.8067350374723</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1856.580916665454</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1634.81430123498</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1345.711434360623</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V13" t="n">
-        <v>1091.026946154736</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="W13" t="n">
-        <v>801.6097761177758</v>
+        <v>1096.307087777741</v>
       </c>
       <c r="X13" t="n">
-        <v>801.6097761177758</v>
+        <v>868.3175368797235</v>
       </c>
       <c r="Y13" t="n">
-        <v>801.6097761177758</v>
+        <v>868.3175368797235</v>
       </c>
     </row>
     <row r="14">
@@ -5255,22 +5255,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5282,22 +5282,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5355,7 +5355,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>749.8045919840864</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8684090561795</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7517696438438</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>430.7517696438438</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>430.7517696438438</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>263.0489330185627</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057174</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851287</v>
+        <v>1533.546670456855</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4530568143261</v>
+        <v>1244.129500419894</v>
       </c>
       <c r="X16" t="n">
-        <v>931.4530568143261</v>
+        <v>1244.129500419894</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.4530568143261</v>
+        <v>1023.336921276364</v>
       </c>
     </row>
     <row r="17">
@@ -5492,28 +5492,28 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
         <v>1106.569146563073</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5607,7 +5607,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902953</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,16 +5674,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931531</v>
+        <v>1871.529864172929</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1649.763248742455</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.845814427773</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176197</v>
+        <v>932.5990189467731</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366029</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M20" t="n">
-        <v>1770.231306037953</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N20" t="n">
-        <v>2749.9835782646</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O20" t="n">
-        <v>3629.948228594055</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P20" t="n">
-        <v>4343.303316041001</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,22 +5859,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.8778888732409</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>402.8778888732409</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>402.8778888732409</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>402.8778888732409</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>255.9879413753305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1577.410141987876</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.725653781989</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1033.308483745028</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>805.3189328470107</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.5263537034806</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176197</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.715908442899</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>3163.468180669546</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>3666.440651548883</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6072,19 +6072,19 @@
         <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6169,25 +6169,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y25" t="n">
         <v>277.2094992786341</v>
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,19 +6312,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,16 +6409,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,19 +6856,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382518</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,19 +7023,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,22 +7120,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7360,10 +7360,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7737,16 +7737,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>314.5564971416988</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476831</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>317.5146261106126</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.01588120402229</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476824</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.6385654278949</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>221.8286349164855</v>
       </c>
       <c r="C2" t="n">
-        <v>91.87321962960797</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.219052476067773e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182105</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>113.7912970276091</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>91.00410138658413</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>75.29441573969228</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>119.7806538380701</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>105.8035594189845</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>16.14213605696591</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>151.9581853156823</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696571</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.14213605696591</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-2.791100811593401e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-4.334310688136611e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53560.00146066977</v>
+        <v>53560.0014606698</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="E2" t="n">
         <v>59562.26803304748</v>
       </c>
       <c r="F2" t="n">
-        <v>59562.26803304748</v>
+        <v>59562.26803304749</v>
       </c>
       <c r="G2" t="n">
-        <v>59562.26803304751</v>
+        <v>59562.26803304746</v>
       </c>
       <c r="H2" t="n">
-        <v>59562.2680330475</v>
+        <v>59562.26803304749</v>
       </c>
       <c r="I2" t="n">
-        <v>59562.26803304751</v>
+        <v>59562.26803304749</v>
       </c>
       <c r="J2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61578.1327398212</v>
+      </c>
+      <c r="L2" t="n">
         <v>61578.13273982125</v>
-      </c>
-      <c r="K2" t="n">
-        <v>61578.13273982125</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61578.13273982124</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982125</v>
@@ -26353,7 +26353,7 @@
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982124</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>395954.851567223</v>
+        <v>395954.8515672229</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709183</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975163</v>
       </c>
       <c r="K4" t="n">
         <v>12448.5078997516</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.50789975158</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975162</v>
       </c>
       <c r="P4" t="n">
         <v>12448.5078997516</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26488,7 +26488,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750453.7476534067</v>
+        <v>-750721.0186960452</v>
       </c>
       <c r="C6" t="n">
-        <v>-213487.541716018</v>
+        <v>-213487.5417160179</v>
       </c>
       <c r="D6" t="n">
         <v>-213487.541716018</v>
       </c>
       <c r="E6" t="n">
-        <v>-785818.2722111646</v>
+        <v>-785885.4677013905</v>
       </c>
       <c r="F6" t="n">
-        <v>-58440.85821775805</v>
+        <v>-58508.05370798379</v>
       </c>
       <c r="G6" t="n">
-        <v>-58440.85821775798</v>
+        <v>-58508.05370798384</v>
       </c>
       <c r="H6" t="n">
-        <v>-58440.858217758</v>
+        <v>-58508.05370798382</v>
       </c>
       <c r="I6" t="n">
-        <v>-58440.858217758</v>
+        <v>-58508.05370798383</v>
       </c>
       <c r="J6" t="n">
         <v>-449989.3425810687</v>
       </c>
       <c r="K6" t="n">
-        <v>-54034.49101384575</v>
+        <v>-54034.49101384579</v>
       </c>
       <c r="L6" t="n">
-        <v>-54034.49101384577</v>
+        <v>-54034.49101384576</v>
       </c>
       <c r="M6" t="n">
         <v>-183676.8058527905</v>
       </c>
       <c r="N6" t="n">
-        <v>-54034.49101384573</v>
+        <v>-54034.49101384575</v>
       </c>
       <c r="O6" t="n">
-        <v>-73462.20900747752</v>
+        <v>-73462.20900747753</v>
       </c>
       <c r="P6" t="n">
-        <v>-54034.49101384575</v>
+        <v>-54034.49101384576</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593299</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.198799748375</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>168.8883354708018</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>49.64642058078954</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>33.63411699316566</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>210.1436319668704</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.61924544429684</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>14.93978775232711</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>115.1289726160416</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>270.0325376351101</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.2263354193846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>187.0787934150503</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.857070510945458e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233471</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837926</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
         <v>168.89895979748</v>
@@ -32710,31 +32710,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
         <v>19.17787942451121</v>
@@ -32783,43 +32783,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233471</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970236</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,19 +32862,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
         <v>300.7247737883116</v>
@@ -32889,13 +32889,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>303.4297552732313</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>567.5882829286713</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>726.7533607666135</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N39" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34457,10 +34457,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35255,13 +35255,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35431,7 +35431,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35659,16 +35659,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>713.3184833610707</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359025</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>654.7059126660132</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509647</v>
@@ -36139,10 +36139,10 @@
         <v>720.5606943908547</v>
       </c>
       <c r="Q20" t="n">
-        <v>313.8101860077419</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013287</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004593</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427827</v>
+        <v>800.2926980400148</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P23" t="n">
-        <v>534.4005516472669</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152073</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013287</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525793</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701982</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>160.8335108287869</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>425.454249006653</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>584.6193268445951</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N39" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38105,10 +38105,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
